--- a/Run-Env/iManager/src/main/webapp/template/List_Interface.xlsx
+++ b/Run-Env/iManager/src/main/webapp/template/List_Interface.xlsx
@@ -3,23 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ESB_workspace\workspace\Git\iGate_v5\Custom\iManager\src\main\webapp\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 목록" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>인터페이스 목록</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -41,19 +37,31 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>어댑터 ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>인터페이스 사용여부</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>최종 수정시간</t>
+    <t>비고</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>최종 사용시간</t>
+    <t>인터페이스 종류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄 종류</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +743,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,12 +759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1091,28 +1102,26 @@
     <col min="4" max="7" width="18.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="18.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="18.75" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="10" max="10" width="18.75" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -1125,57 +1134,74 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>6</v>
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="10"/>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Run-Env/iManager/src/main/webapp/template/List_Interface.xlsx
+++ b/Run-Env/iManager/src/main/webapp/template/List_Interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 목록" sheetId="1" r:id="rId1"/>
@@ -15,20 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>인터페이스 목록</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>인터페이스 ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터페이스 이름</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>그룹</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -37,18 +29,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>인터페이스 사용여부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>인터페이스 종류</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>권한</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -62,6 +46,34 @@
   </si>
   <si>
     <t>스케줄 종류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1104,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1135,60 +1147,60 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
